--- a/chpt4/FeatureEngExerciseHousing.xlsx
+++ b/chpt4/FeatureEngExerciseHousing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smcfarla\Desktop\ML Spring22\MSA8260Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BAE6C6-927D-4F82-84D1-51AB9E4B133F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31C14F5-F396-4F6B-92D8-FC015E8E1A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{BA497158-3918-411B-8DC0-05AB5F4C3B11}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>#1</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>Learning Curve Observation</t>
-  </si>
-  <si>
     <t>comment out stratification during train_test_split</t>
   </si>
   <si>
@@ -84,21 +81,9 @@
     <t>switch back to OneHotEncoder and comment out code that creates features roomsPerH, popPerH, bedroomsPerR</t>
   </si>
   <si>
-    <t>Nice learning curve</t>
-  </si>
-  <si>
     <t>Overall Observation</t>
   </si>
   <si>
-    <t>Does not perform as well as with OneHotEncoder</t>
-  </si>
-  <si>
-    <t>Data has less context so struggles to learn</t>
-  </si>
-  <si>
-    <t>Best model when using log transformation but requires added complexity of Polynomial Features</t>
-  </si>
-  <si>
     <t>Add back in features roomsPerH, popPerH and bedroomsPerR  and uncomment the PowerTransformer code found in the numeric pipeline</t>
   </si>
   <si>
@@ -117,27 +102,6 @@
     <t>Adding logrithmic transformation to numeric features to help normalize data</t>
   </si>
   <si>
-    <t>Complexity helps performance but still performing worse than when there is stratification (particularly with testing data)</t>
-  </si>
-  <si>
-    <t>more variability in CV at the beginning but plateaus at ~5,000 observations; not  a lot of learning happening - model may be underfitting the data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strange learning curve at the beginning and the plateaus quickly at around 5,000 observations  </t>
-  </si>
-  <si>
-    <t>Learns quickly, plateaus &amp; converges at ~8,000 observations; large variance during CV</t>
-  </si>
-  <si>
-    <t>very little learning of training and CV trying to learning over time with a lot of variability - a sign that the model has been overfitted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model shows that learning has not completed (just starting to converge at the end) and a signifcant amounto of variance in CV - model needs more data and/or more complexity to learn </t>
-  </si>
-  <si>
-    <t>Erratic learning - still more opportunity to learn so could benefit from more data or complexity</t>
-  </si>
-  <si>
     <t>plateaus &amp; converges at ~8000 observations; large variance during validation</t>
   </si>
   <si>
@@ -145,6 +109,12 @@
   </si>
   <si>
     <t xml:space="preserve">Performance benefits from more complexity of Polynomial Features </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learning Curve </t>
+  </si>
+  <si>
+    <t>Learning Curve</t>
   </si>
 </sst>
 </file>
@@ -193,15 +163,15 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -284,7 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -321,24 +291,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -348,30 +306,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -692,8 +669,8 @@
   </sheetPr>
   <dimension ref="B1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -702,243 +679,188 @@
     <col min="2" max="2" width="5.6328125" style="5" customWidth="1"/>
     <col min="3" max="3" width="22" style="10" customWidth="1"/>
     <col min="4" max="4" width="25.6328125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="9.6328125" style="18" customWidth="1"/>
     <col min="6" max="6" width="9.6328125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.6328125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="9.6328125" style="23" customWidth="1"/>
+    <col min="7" max="7" width="33.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6328125" style="19" customWidth="1"/>
     <col min="9" max="9" width="9.6328125" customWidth="1"/>
     <col min="10" max="10" width="30.6328125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="25.6328125" style="23" customWidth="1"/>
+    <col min="11" max="11" width="25.6328125" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="E1" s="25" t="s">
+      <c r="B1" s="35"/>
+      <c r="E1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B2" s="9"/>
       <c r="C2" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="26" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="26" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="68.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="20">
+      <c r="E3" s="27">
         <v>68161</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="28">
         <v>66802</v>
       </c>
-      <c r="G3" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="20">
+      <c r="G3" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="27">
         <v>60010</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="28">
         <v>60798</v>
       </c>
-      <c r="J3" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
+      <c r="J3" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
     </row>
     <row r="4" spans="2:15" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="21">
-        <v>67593</v>
-      </c>
-      <c r="F4" s="14">
-        <v>69127</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="21">
-        <v>59574</v>
-      </c>
-      <c r="I4" s="14">
-        <v>62697</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
+        <v>18</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
     </row>
     <row r="5" spans="2:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="20">
-        <v>68634</v>
-      </c>
-      <c r="F5" s="18">
-        <v>67368</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="20">
-        <v>61167</v>
-      </c>
-      <c r="I5" s="18">
-        <v>61953</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
+      <c r="C5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
     </row>
     <row r="6" spans="2:15" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="21">
-        <v>69051</v>
-      </c>
-      <c r="F6" s="14">
-        <v>67345</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="21">
-        <v>62291</v>
-      </c>
-      <c r="I6" s="14">
-        <v>61140</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
+        <v>20</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
     </row>
     <row r="7" spans="2:15" ht="84" x14ac:dyDescent="0.35">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="28" t="s">
+      <c r="C7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="20">
-        <v>70732</v>
-      </c>
-      <c r="F7" s="18">
-        <v>70887</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="20">
-        <v>57639</v>
-      </c>
-      <c r="I7" s="18">
-        <v>57129</v>
-      </c>
-      <c r="J7" s="27" t="s">
+      <c r="D7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="H8" s="21"/>
+      <c r="H8" s="17"/>
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="H9" s="21"/>
+      <c r="H9" s="17"/>
       <c r="I9" s="6"/>
     </row>
   </sheetData>

--- a/chpt4/FeatureEngExerciseHousing.xlsx
+++ b/chpt4/FeatureEngExerciseHousing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smcfarla\Desktop\ML Spring22\MSA8260Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31C14F5-F396-4F6B-92D8-FC015E8E1A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C555A3D-BE48-4B7D-B4BE-7FE1F870D7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{BA497158-3918-411B-8DC0-05AB5F4C3B11}"/>
   </bookViews>
@@ -75,9 +75,6 @@
     <t>run code as is - no changes necessary</t>
   </si>
   <si>
-    <t>add back in stratification and use OrdinalEcoder rather than OneHotEncoder</t>
-  </si>
-  <si>
     <t>switch back to OneHotEncoder and comment out code that creates features roomsPerH, popPerH, bedroomsPerR</t>
   </si>
   <si>
@@ -93,15 +90,9 @@
     <t>Removing stratification</t>
   </si>
   <si>
-    <t>OrdinalEconder rather than OneHotEncoder</t>
-  </si>
-  <si>
     <t>Removing features that provide context to data</t>
   </si>
   <si>
-    <t>Adding logrithmic transformation to numeric features to help normalize data</t>
-  </si>
-  <si>
     <t>plateaus &amp; converges at ~8000 observations; large variance during validation</t>
   </si>
   <si>
@@ -115,6 +106,15 @@
   </si>
   <si>
     <t>Learning Curve</t>
+  </si>
+  <si>
+    <t>OrdinalEncoder rather than OneHotEncoder</t>
+  </si>
+  <si>
+    <t>add back in stratification and use OrdinalEncoder rather than OneHotEncoder</t>
+  </si>
+  <si>
+    <t>Adding logarithmic transformation to numeric features to help normalize data</t>
   </si>
 </sst>
 </file>
@@ -312,43 +312,43 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -670,7 +670,7 @@
   <dimension ref="B1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -689,46 +689,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="B1" s="35"/>
-      <c r="E1" s="23" t="s">
+      <c r="B1" s="33"/>
+      <c r="E1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="23" t="s">
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B2" s="9"/>
       <c r="C2" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="68.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -741,26 +741,26 @@
       <c r="D3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="25">
         <v>68161</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="26">
         <v>66802</v>
       </c>
-      <c r="G3" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="27">
+      <c r="G3" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="25">
         <v>60010</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="26">
         <v>60798</v>
       </c>
-      <c r="J3" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="30" t="s">
-        <v>24</v>
+      <c r="J3" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>21</v>
       </c>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
@@ -772,18 +772,18 @@
         <v>1</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="34"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="32"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
@@ -794,18 +794,18 @@
         <v>2</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="30"/>
+        <v>25</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="28"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
@@ -816,18 +816,18 @@
         <v>3</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="34"/>
+        <v>13</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="32"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
@@ -838,18 +838,18 @@
         <v>4</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="30"/>
+        <v>15</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="28"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>

--- a/chpt4/FeatureEngExerciseHousing.xlsx
+++ b/chpt4/FeatureEngExerciseHousing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smcfarla\OneDrive - Villanova University\Documents\MSA8260\Spr23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://villanova-my.sharepoint.com/personal/smcfarla_villanova_edu/Documents/Documents/MIS3080/Spr23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333C3FF0-2E2C-4A60-9366-F29F711CDF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{39344463-64FC-4CBE-A158-8D16439F6B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8FDD63C-170C-400E-A49C-5E3057F7266E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{BA497158-3918-411B-8DC0-05AB5F4C3B11}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{BA497158-3918-411B-8DC0-05AB5F4C3B11}"/>
   </bookViews>
   <sheets>
     <sheet name="Housing Dataset" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>#1</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Stratification</t>
   </si>
   <si>
-    <t>good learning curve = little variance</t>
-  </si>
-  <si>
     <t>lots of vairance, not a steady learning curve</t>
   </si>
   <si>
@@ -115,6 +112,12 @@
   </si>
   <si>
     <t>Add in stratification to train_test_split()</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>good learning curve = little to no variance</t>
   </si>
 </sst>
 </file>
@@ -287,13 +290,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -306,20 +308,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -340,7 +342,6 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -350,6 +351,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -361,9 +366,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -381,6 +383,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -683,199 +689,221 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:M7"/>
+  <dimension ref="B1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.54296875" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" style="6" customWidth="1"/>
-    <col min="4" max="5" width="25.54296875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="9.54296875" style="11" customWidth="1"/>
-    <col min="7" max="8" width="9.54296875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="33.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.54296875" style="11" customWidth="1"/>
-    <col min="11" max="12" width="9.54296875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="33.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="5" customWidth="1"/>
+    <col min="4" max="5" width="25.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="10" customWidth="1"/>
+    <col min="7" max="9" width="9.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="33.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="10" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="23" customWidth="1"/>
+    <col min="13" max="14" width="9.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="33.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B1" s="20"/>
+    <row r="1" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F1" s="24" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="24" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="25"/>
       <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="68.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>10</v>
+      <c r="E3" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="15">
+        <v>68434</v>
+      </c>
+      <c r="G3" s="16">
+        <v>68623</v>
+      </c>
+      <c r="H3" s="16">
+        <v>1439</v>
+      </c>
+      <c r="I3" s="16">
+        <v>70060</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="15">
+        <v>41169</v>
+      </c>
+      <c r="L3" s="16">
+        <v>48148</v>
+      </c>
+      <c r="M3" s="16">
+        <v>672</v>
+      </c>
+      <c r="N3" s="16">
+        <v>48058</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="68.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="16">
-        <v>68434</v>
-      </c>
-      <c r="G3" s="17">
-        <v>68623</v>
-      </c>
-      <c r="H3" s="17">
-        <v>70060</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="16">
-        <v>41169</v>
-      </c>
-      <c r="K3" s="17">
-        <v>48148</v>
-      </c>
-      <c r="L3" s="17">
-        <v>48058</v>
-      </c>
-      <c r="M3" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="23"/>
+      <c r="D4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="21"/>
     </row>
-    <row r="5" spans="2:13" ht="48" x14ac:dyDescent="0.35">
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="2:15" ht="48" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="22"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="20"/>
     </row>
-    <row r="6" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:15" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="21"/>
+    </row>
+    <row r="7" spans="2:15" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="23"/>
-    </row>
-    <row r="7" spans="2:13" ht="65" x14ac:dyDescent="0.35">
-      <c r="B7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="22"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:O1"/>
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
